--- a/biology/Botanique/Arbres_remarquables_au_Luxembourg/Arbres_remarquables_au_Luxembourg.xlsx
+++ b/biology/Botanique/Arbres_remarquables_au_Luxembourg/Arbres_remarquables_au_Luxembourg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une liste « officielle » des arbres remarquables du Luxembourg fut publiée en 2002 par l'administration luxembourgeoise des eaux et forêts (aujourd'hui Administration de la nature et des forêts)[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une liste « officielle » des arbres remarquables du Luxembourg fut publiée en 2002 par l'administration luxembourgeoise des eaux et forêts (aujourd'hui Administration de la nature et des forêts).
 Cette liste de 2002 sert de base à la liste publiée dans l'article Liste des arbres remarquables du Luxembourg.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1883 Jean-Nicolas Moes lance un appel au recensement des arbres remarquables du Grand-Duché dans le journal Das Luxemburger Land, dont il est l'éditeur. À la suite de cet appel, de courtes notes sur une série d'arbres remarquables sont publiées dans ce journal. 
 En 1893 Ernest Faber, ingénieur forestier, publie une brochure avec la description d'une série d'arbres qui sont remarquables par leur âge et leur taille. Le même auteur publie en 1907 un premier inventaire systématique, photos comprises, des arbres remarquables du pays, inventaire qu'il complétera dans trois de ses publications ultérieures (Faber 1912, 1913, 1920).
